--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC67035-908A-4051-8D6A-34CCAE8C9A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD8361-E8F3-4FF7-9E3A-263C43975F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28995" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1982,8 +1982,8 @@
       <c r="B45">
         <v>60</v>
       </c>
-      <c r="C45" t="s">
-        <v>58</v>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D45">
         <v>450</v>
@@ -2000,8 +2000,8 @@
       <c r="B46">
         <v>60</v>
       </c>
-      <c r="C46" t="s">
-        <v>62</v>
+      <c r="C46" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D46">
         <v>460</v>
@@ -2018,8 +2018,8 @@
       <c r="B47">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
-        <v>63</v>
+      <c r="C47" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D47">
         <v>470</v>
@@ -2036,8 +2036,8 @@
       <c r="B48">
         <v>60</v>
       </c>
-      <c r="C48" t="s">
-        <v>64</v>
+      <c r="C48" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D48">
         <v>480</v>
@@ -2126,8 +2126,8 @@
       <c r="B53">
         <v>60</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>56</v>
+      <c r="C53" t="s">
+        <v>58</v>
       </c>
       <c r="D53">
         <v>530</v>
@@ -2144,8 +2144,8 @@
       <c r="B54">
         <v>60</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>67</v>
+      <c r="C54" t="s">
+        <v>62</v>
       </c>
       <c r="D54">
         <v>540</v>
@@ -2162,8 +2162,8 @@
       <c r="B55">
         <v>60</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>68</v>
+      <c r="C55" t="s">
+        <v>63</v>
       </c>
       <c r="D55">
         <v>550</v>
@@ -2180,8 +2180,8 @@
       <c r="B56">
         <v>60</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>70</v>
+      <c r="C56" t="s">
+        <v>64</v>
       </c>
       <c r="D56">
         <v>560</v>
